--- a/biology/Zoologie/Henry_Roughton_Hogg/Henry_Roughton_Hogg.xlsx
+++ b/biology/Zoologie/Henry_Roughton_Hogg/Henry_Roughton_Hogg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Roughton Hogg est un arachnologiste amateur britannique, né en 1850 et mort le 1er décembre 1923 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Christ’s College de Cambridge où il obtient son Bachelor of Arts en 1868 et son Master of Arts en 1873. Il s’installe en Australie et y reste jusqu’en 1892. Durant ses loisirs, Hogg étudie les araignées d’Australie et devient alors spécialiste de l’aranéofaune de ce continent ainsi que de la Nouvelle-Zélande. Il lègue ses collections au Natural History Museum de Londres.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Bonnet (1945). Bibliographia araneorum, Les frères Doularoude (Toulouse).
 Notices d'autorité : VIAF IdRef WorldCat 
